--- a/Day_22_assignment/Ebay testcases.xlsx
+++ b/Day_22_assignment/Ebay testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2CA3A1-1FCE-E841-906B-1B3C2B65481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E72E1-A5FE-4208-95E5-2A0AC63D3672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="760" windowWidth="25800" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
   <si>
     <t>TC No.</t>
   </si>
@@ -275,13 +275,74 @@
   </si>
   <si>
     <t>Browser open, eBay homepage loaded, Item should be present in cart</t>
+  </si>
+  <si>
+    <t>Multiple Search Test(invalid format only SS)</t>
+  </si>
+  <si>
+    <t>verifying if search bar accepts invalid characters for searching</t>
+  </si>
+  <si>
+    <t>Search for "!@#$%^",   press Enter</t>
+  </si>
+  <si>
+    <t>It should return with any suggestion that it couldn’t find related (or) throw a mssg like for us to check what we typed.</t>
+  </si>
+  <si>
+    <t>It's showing results for all categories</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">❌ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Failed</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        Bug_ID</t>
+  </si>
+  <si>
+    <t>Account Settings Test (Donation Preferences Settigs)</t>
+  </si>
+  <si>
+    <t>to verify if those settings are available</t>
+  </si>
+  <si>
+    <t>Go to Account settings → Donation Preferences</t>
+  </si>
+  <si>
+    <t>It should display some settings related to it</t>
+  </si>
+  <si>
+    <t>It's not showing anything (Blank)</t>
+  </si>
+  <si>
+    <t>❌ Failed</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>B_001</t>
+  </si>
+  <si>
+    <t>B_002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -312,6 +373,19 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,8 +425,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,20 +645,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="134" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="5"/>
-    <col min="2" max="2" width="22.5" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="16.33203125" style="5"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="33" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -609,9 +683,12 @@
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="91.05" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -636,8 +713,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" ht="91.05" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -662,8 +739,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" ht="91.05" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -688,8 +765,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:9" ht="91.05" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -714,8 +791,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:9" ht="91.05" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -740,8 +817,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:9" ht="91.05" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -766,8 +843,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:9" ht="91.05" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -792,8 +869,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:9" ht="91.05" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -818,8 +895,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:9" ht="63" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -844,50 +921,53 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:9" ht="79.05" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
@@ -896,24 +976,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:9" ht="79.05" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>82</v>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
@@ -922,24 +1002,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:9" ht="67.05" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
@@ -948,55 +1028,110 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:9" ht="67.05" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
+      <c r="B15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="58.95" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="66" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
